--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1310351.133562261</v>
+        <v>1328725.823028382</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>118.0867093812785</v>
+        <v>84.80114430924264</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>31.51591178597109</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>123.5287822845479</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.95189872950467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>89.12088359923843</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.37682225755638</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>275.1802903004225</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>123.5754622188314</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>266.8554903902513</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.88965426564968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.54139430664229</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>33.3514698018592</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185965</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>64.34190763938477</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>25.58923446922638</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>102.0005969012859</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>122.2151751544601</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>18.21671421686532</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.00407538591686</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2998,10 +2998,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>213.4998989363463</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>224.8952567231525</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>96.84207451769419</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>104.6354350586182</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
-        <v>235.7185238913816</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>49.12199829633416</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>60.5413943066415</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2268.654643287636</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C2" t="n">
-        <v>1899.692126347224</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="D2" t="n">
-        <v>1541.426427740474</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="E2" t="n">
-        <v>1155.638175142229</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="F2" t="n">
-        <v>744.6522703526218</v>
+        <v>711.0304874515755</v>
       </c>
       <c r="G2" t="n">
-        <v>326.6884622508087</v>
+        <v>293.0666793497624</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1546.923471077109</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1546.923471077109</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1161.135218478865</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>750.1493136892575</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>332.1855055874444</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519314</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="D7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>336.5105482958257</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>189.6206007979154</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>189.6206007979154</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>709.5665374816298</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>709.5665374816298</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.5665374816298</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>975.5408384191571</v>
+        <v>1160.852583904131</v>
       </c>
       <c r="C8" t="n">
-        <v>975.5408384191571</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D8" t="n">
-        <v>975.5408384191571</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E8" t="n">
-        <v>589.7525858209128</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>178.7666810313053</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036444</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.74576872017</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.280010459091</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1362.140678483279</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
         <v>99.5995062532301</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124028</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124028</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511404</v>
+        <v>429.1610646658629</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5078,13 +5078,13 @@
         <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698951</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954972</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028589</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
         <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954972</v>
+        <v>420.322614832458</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5346,25 +5346,25 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341679</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954977</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954977</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954977</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954977</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954977</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954977</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954977</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471196</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247869</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383451</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324583</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954977</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954977</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954977</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.00103929694</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>1244.231782352015</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>378.1030765138945</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>624.8682044203586</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>932.1883377003201</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4458.413529040523</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C25" t="n">
-        <v>4289.477346112616</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D25" t="n">
-        <v>4139.36070670028</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E25" t="n">
-        <v>3991.447613117887</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F25" t="n">
-        <v>3844.557665619977</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G25" t="n">
         <v>3721.107993746785</v>
@@ -6190,7 +6190,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="Y25" t="n">
-        <v>4640.061993870762</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.260917288848</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>3492.843747251887</v>
+        <v>1191.386910340284</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916676</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916676</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="29">
@@ -6443,43 +6443,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.400123145958</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.048587976198</v>
+        <v>4334.202995919603</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028583</v>
@@ -6734,16 +6734,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4633.687647031309</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>4379.003158825422</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>4089.585988788462</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6944,43 +6944,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1096.475226584133</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C37" t="n">
-        <v>927.5390436562259</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D37" t="n">
-        <v>777.4224042438901</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>629.509310661497</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>482.6193631635866</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>314.4440414834072</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4295.174971285783</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>4005.757801248822</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>3777.768250350805</v>
       </c>
       <c r="Y37" t="n">
-        <v>1278.123691414372</v>
+        <v>3556.975671207275</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
@@ -7196,25 +7196,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>1060.896741391251</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>1060.896741391251</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>1060.896741391251</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>1060.896741391251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7403,13 +7403,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,7 +7445,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3721.107993746786</v>
+        <v>3975.739489936619</v>
       </c>
       <c r="C43" t="n">
-        <v>3721.107993746786</v>
+        <v>3806.803307008712</v>
       </c>
       <c r="D43" t="n">
-        <v>3721.107993746786</v>
+        <v>3656.686667596376</v>
       </c>
       <c r="E43" t="n">
-        <v>3721.107993746786</v>
+        <v>3508.773574013983</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746786</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U43" t="n">
-        <v>4036.945405494735</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V43" t="n">
-        <v>3782.260917288848</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W43" t="n">
-        <v>3721.107993746786</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="X43" t="n">
-        <v>3721.107993746786</v>
+        <v>4378.180533910388</v>
       </c>
       <c r="Y43" t="n">
-        <v>3721.107993746786</v>
+        <v>4157.387954766858</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,22 +7634,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7670,7 +7670,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.2482765610114</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7837,19 +7837,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1281.689320534781</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1281.689320534781</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>1281.689320534781</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X46" t="n">
-        <v>1281.689320534781</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.896741391251</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>15.83804904622787</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627432</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229567</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165108</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>91.23759968302147</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>105.9521741567353</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241277</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.06777566241232</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>154.24274571271</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>77.83138328065138</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>44.27839330891744</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.3062841197257</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>154.242745712711</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>8.047662122042965</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>61.34209567542487</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>82.98990566424311</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>44.27839330891797</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,13 +25369,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
-        <v>50.51882850719576</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>96.29904972659709</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>225.9816040299495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>71.18267187568719</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="13">
@@ -26320,34 +26320,34 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="M2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26500,16 +26500,16 @@
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377747.0380912594</v>
+        <v>-375218.7169278171</v>
       </c>
       <c r="C6" t="n">
-        <v>212220.8411232849</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
-        <v>212220.8411232849</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-198802.3085175472</v>
+        <v>-196767.4892795504</v>
       </c>
       <c r="F6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973466</v>
       </c>
       <c r="G6" t="n">
-        <v>326357.7279593498</v>
+        <v>328392.5471973466</v>
       </c>
       <c r="H6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973464</v>
       </c>
       <c r="I6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="J6" t="n">
-        <v>149934.5087667565</v>
+        <v>151969.3280047534</v>
       </c>
       <c r="K6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="L6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="M6" t="n">
-        <v>191556.712725512</v>
+        <v>193591.531963509</v>
       </c>
       <c r="N6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="O6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="P6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973463</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990183</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>205.8360633830786</v>
+        <v>239.1216284551145</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>135.7309093126567</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>17.64056718375454</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>200.3939904798093</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.2860399265489</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>67.05000524255672</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.74592769735793</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>90.09260147058507</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>290.2087078019636</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>19.42638385172643</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.6949990864451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,19 +31999,19 @@
         <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946995</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562945</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680332</v>
@@ -32154,16 +32154,16 @@
         <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263752</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>326.2624260966943</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951453</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109126</v>
@@ -35668,7 +35668,7 @@
         <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734233</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415667</v>
+        <v>756.5322523145238</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507424</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789726</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>241.8130382709607</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,16 +36446,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328725.823028382</v>
+        <v>1404255.492693187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>84.80114430924264</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>190.322639827404</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>31.51591178597109</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>123.5287822845479</v>
+        <v>317.4594234814419</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>142.6271181085172</v>
       </c>
       <c r="H7" t="n">
-        <v>89.12088359923843</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>275.1802903004225</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>308.2979792859471</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>266.8554903902513</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1531,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.5678108961688</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664229</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1582,10 +1584,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6635323293995</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.58923446922638</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>112.7789654907349</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.0005969012859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.2388225483012</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.0106596486948</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>206.9934954636136</v>
       </c>
       <c r="W28" t="n">
-        <v>18.21671421686532</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.72775912350871</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4998989363463</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>79.71208056177241</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.84207451769419</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>64.34190763938432</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>25.53959174798218</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>49.12199829633416</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>114.9309043193591</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>265.1760004670413</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.016392241183</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.016392241183</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1122.016392241183</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>711.0304874515755</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>293.0666793497624</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,13 +4336,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>2504.904000283471</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1915.885988017521</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.923471077109</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="D5" t="n">
-        <v>1546.923471077109</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="E5" t="n">
-        <v>1161.135218478865</v>
+        <v>1203.558779036474</v>
       </c>
       <c r="F5" t="n">
-        <v>750.1493136892575</v>
+        <v>792.5728742468664</v>
       </c>
       <c r="G5" t="n">
-        <v>332.1855055874444</v>
+        <v>374.6090661450532</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,10 +4658,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782189</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4236418782189</v>
+        <v>198.0107778895738</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5105482958257</v>
+        <v>198.0107778895738</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6206007979154</v>
+        <v>198.0107778895738</v>
       </c>
       <c r="G7" t="n">
-        <v>189.6206007979154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4752,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.852583904131</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117851</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205144</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968253</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>429.1610646658629</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>429.1610646658629</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>429.1610646658629</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>429.1610646658629</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.1610646658629</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528587</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.322614832458</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="C13" t="n">
-        <v>420.322614832458</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="D13" t="n">
-        <v>420.322614832458</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>420.322614832458</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>420.322614832458</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247867</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383449</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>420.322614832458</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>420.322614832458</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>420.322614832458</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.322614832458</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5345,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119729</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119729</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119729</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119729</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119729</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119729</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5497,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5531,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="D19" t="n">
         <v>822.1480540508779</v>
@@ -5701,22 +5703,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.048587976198</v>
+        <v>936.0662010112162</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5734,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.385901362073</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.385901362073</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>4326.385901362073</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>4036.968731325112</v>
       </c>
       <c r="X22" t="n">
-        <v>1244.231782352015</v>
+        <v>3808.979180427095</v>
       </c>
       <c r="Y22" t="n">
-        <v>1244.231782352015</v>
+        <v>3808.979180427095</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4503.13917884751</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="C25" t="n">
-        <v>4334.202995919603</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507268</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924875</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426964</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014292</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X25" t="n">
-        <v>4860.854573014292</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y25" t="n">
-        <v>4684.78764367775</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,25 +6220,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.47475800178</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945774</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164471</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.9563154684962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.386910340284</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X28" t="n">
-        <v>963.3973594422661</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.6047802987359</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6546,19 +6548,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4334.202995919603</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4334.202995919603</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4334.202995919603</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>4334.202995919603</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>4334.202995919603</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X31" t="n">
-        <v>4334.202995919603</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y31" t="n">
-        <v>4334.202995919603</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>325.6474381353784</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>177.7343445529852</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6922,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6958,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4595.498205900218</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491669</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.859459491669</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="U37" t="n">
-        <v>4549.859459491669</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="V37" t="n">
-        <v>4295.174971285783</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="W37" t="n">
-        <v>4005.757801248822</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="X37" t="n">
-        <v>3777.768250350805</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="Y37" t="n">
-        <v>3556.975671207275</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,16 +7402,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7418,22 +7420,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
         <v>1808.163466324677</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3975.739489936619</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3806.803307008712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3656.686667596376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3508.773574013983</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014292</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>4606.170084808406</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>4606.170084808406</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>4378.180533910388</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>4157.387954766858</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,22 +7636,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7670,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G46" t="n">
         <v>359.1696912903951</v>
@@ -7801,7 +7803,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>696.2811958984814</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863221</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627432</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165108</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>8.04766212204359</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567353</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>34.95194068881287</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.24274571271</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.2427457127109</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>35.83650752747747</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.83138328065138</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0.3087385100880056</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.9031687188413571</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>45.14414786021445</v>
       </c>
       <c r="W28" t="n">
-        <v>268.3062841197257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.69328889942253</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>8.047662122042965</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>65.70896746115884</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25126,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.98990566424311</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.5789023442189</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>260.9834065886088</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>96.29904972659709</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.98990566424413</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>21.06135193153602</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453429</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26323,31 +26325,31 @@
         <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="M2" t="n">
-        <v>449683.4186983653</v>
-      </c>
       <c r="N2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26436,10 +26438,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26454,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375218.7169278171</v>
+        <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
         <v>214749.1622867273</v>
@@ -26528,22 +26530,22 @@
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795504</v>
+        <v>-196767.4892795496</v>
       </c>
       <c r="F6" t="n">
-        <v>328392.5471973466</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="G6" t="n">
-        <v>328392.5471973466</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="H6" t="n">
-        <v>328392.5471973464</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="I6" t="n">
         <v>328392.5471973463</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.3280047534</v>
+        <v>151969.3280047533</v>
       </c>
       <c r="K6" t="n">
         <v>328392.5471973463</v>
@@ -26552,13 +26554,13 @@
         <v>328392.5471973463</v>
       </c>
       <c r="M6" t="n">
-        <v>193591.531963509</v>
+        <v>193591.5319635092</v>
       </c>
       <c r="N6" t="n">
-        <v>328392.5471973463</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973463</v>
+        <v>328392.5471973461</v>
       </c>
       <c r="P6" t="n">
         <v>328392.5471973463</v>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26790,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>239.1216284551145</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>60.90152768088527</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7309093126567</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>200.3939904798093</v>
+        <v>6.46334928291526</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>24.68268415053367</v>
       </c>
       <c r="H7" t="n">
-        <v>67.05000524255672</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>90.09260147058507</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>40.94298943146589</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>17.8816912783675</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>19.42638385172643</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178469</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951453</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560245</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145238</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36677,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36914,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37151,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37403,7 +37405,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,7 +37873,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1404255.492693187</v>
+        <v>1397238.477801476</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>190.322639827404</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>317.4594234814419</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>82.5995718321566</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>142.6271181085172</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>110.92720347361</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>308.2979792859471</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.1119195785035</v>
       </c>
       <c r="D13" t="n">
-        <v>140.5678108961688</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>113.6635323293995</v>
+        <v>65.57092839063779</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>112.7789654907349</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>164.3650309254209</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.2388225483012</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>12.05100180681459</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.0106596486948</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>206.9934954636136</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>45.72775912350871</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>79.71208056177241</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>76.33749994735975</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>32.89657674137945</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>64.34190763938432</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>25.53959174798218</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>72.42216110519917</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.9309043193591</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>24.14700674866013</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>265.1760004670413</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2504.904000283471</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2504.904000283471</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2504.904000283471</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2504.904000283471</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2504.904000283471</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.347031634718</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1589.347031634718</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1589.347031634718</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1203.558779036474</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>792.5728742468664</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>374.6090661450532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.94687169884</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0636002298164</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>348.1274173019095</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>198.0107778895738</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>198.0107778895738</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>198.0107778895738</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1999.645413916309</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4895,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>598.0446400632119</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>598.0446400632119</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>598.0446400632119</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5129,7 +5129,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.1357418247858</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>964.1357418247858</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>626.428715221413</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>626.428715221413</v>
       </c>
       <c r="D16" t="n">
         <v>560.1954542207687</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>936.0662010112162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>936.0662010112162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>936.0662010112162</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>936.0662010112162</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,43 +5737,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3627.330715596855</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596855</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596855</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596855</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596855</v>
+        <v>263.2423752233373</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.385901362073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.385901362073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4326.385901362073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>4036.968731325112</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>3808.979180427095</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y22" t="n">
-        <v>3808.979180427095</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.1935825831087</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="C25" t="n">
-        <v>358.2573996552018</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="D25" t="n">
-        <v>358.2573996552018</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E25" t="n">
-        <v>358.2573996552018</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>358.2573996552018</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>358.2573996552018</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W25" t="n">
-        <v>755.183133481126</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X25" t="n">
-        <v>527.1935825831087</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.1935825831087</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>465.9227641862091</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>465.9227641862091</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
@@ -6466,22 +6466,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>755.183133481126</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>755.183133481126</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>755.183133481126</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,25 +6694,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>644.700260475621</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C34" t="n">
-        <v>475.7640775477141</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D34" t="n">
-        <v>325.6474381353784</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E34" t="n">
-        <v>177.7343445529852</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.807684752489</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.807684752489</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1421.807684752489</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1421.807684752489</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>1421.807684752489</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.130855347408</v>
+        <v>1421.807684752489</v>
       </c>
       <c r="X34" t="n">
-        <v>1047.141304449391</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="Y34" t="n">
-        <v>826.3487253058607</v>
+        <v>973.0255547109412</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,28 +6958,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4595.498205900218</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4684.78764367775</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4684.78764367775</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4684.78764367775</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4684.78764367775</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4684.78764367775</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>4684.78764367775</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>4684.78764367775</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.5250474102529</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="C40" t="n">
-        <v>394.5250474102529</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="D40" t="n">
-        <v>394.5250474102529</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>394.5250474102529</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>394.5250474102529</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.5250474102529</v>
+        <v>653.6713633309777</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.2811958984814</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705745</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705745</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705745</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>142.8933815502924</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>696.2811958984814</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>696.2811958984814</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>696.2811958984814</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>696.2811958984814</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>696.2811958984814</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>40.1349015201243</v>
       </c>
       <c r="D13" t="n">
-        <v>8.04766212204359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>34.95194068881287</v>
+        <v>83.04454462757457</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>35.83650752747747</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>259.2629056590285</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.128537537956703</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3087385100880056</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5644712113978</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9031687188413571</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>45.14414786021445</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>99.69328889942253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>65.70896746115884</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>33.62685245643306</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.0172516261567</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>133.5789023442189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>260.9834065886088</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>146.1624922468956</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.98990566424413</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>194.4376466034346</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>21.06135193153602</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453429</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983653</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,16 +26450,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
-        <v>214749.1622867273</v>
+        <v>214749.1622867274</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795496</v>
+        <v>-197742.0805392717</v>
       </c>
       <c r="F6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="G6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376248</v>
       </c>
       <c r="H6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="I6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.3280047533</v>
+        <v>150994.7367450318</v>
       </c>
       <c r="K6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="L6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="M6" t="n">
-        <v>193591.5319635092</v>
+        <v>192616.9407037875</v>
       </c>
       <c r="N6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973461</v>
+        <v>327417.9559376249</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>60.90152768088527</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6.46334928291526</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>303.638366823897</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>24.68268415053367</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,16 +27827,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>175.5957948629809</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.52067551358147</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>40.94298943146589</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="R10" t="n">
-        <v>17.8816912783675</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727429</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,16 +37873,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1397238.477801476</v>
+        <v>1402177.740650508</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>5.791117132838792</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>103.0234800710812</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.5995718321566</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>110.92720347361</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>26.53815412835792</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>70.9868473430836</v>
       </c>
       <c r="C13" t="n">
-        <v>127.1119195785035</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.57092839063779</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>61.38537889855447</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>27.26009267756244</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>73.0083725945403</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>164.3650309254209</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>12.05100180681459</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.4224711922605</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>237.3965091869248</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>76.33749994735975</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>150.8277016661813</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>32.89657674137945</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>50.03633552408541</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>158.8067749641424</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.42216110519917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.14700674866013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>45.21952718910648</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>888.7423079772789</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>477.7564031876713</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.79259508585818</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.79259508585818</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1049.6537038628</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>638.6677990731923</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1822.041796525166</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983735</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>506.0324822735071</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,7 +5305,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>626.428715221413</v>
+        <v>306.1124721890593</v>
       </c>
       <c r="C16" t="n">
-        <v>626.428715221413</v>
+        <v>306.1124721890593</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>306.1124721890593</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>754.8946022306068</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>526.9050513325894</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.428715221413</v>
+        <v>306.1124721890593</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,7 +5612,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5712,13 +5712,13 @@
         <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491545</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212476</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1323227212476</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1323227212476</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2423752233373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793943</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.6108700904385</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C25" t="n">
-        <v>554.6108700904385</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>156.2296886241853</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273991</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904385</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X25" t="n">
-        <v>554.6108700904385</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y25" t="n">
-        <v>554.6108700904385</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,28 +6214,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>835.416391538794</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6745,7 +6745,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.0255547109412</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C34" t="n">
-        <v>804.0893717830343</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706985</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1421.807684752489</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1421.807684752489</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1421.807684752489</v>
+        <v>1146.645046669231</v>
       </c>
       <c r="U34" t="n">
-        <v>1421.807684752489</v>
+        <v>1146.645046669231</v>
       </c>
       <c r="V34" t="n">
-        <v>1421.807684752489</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="W34" t="n">
-        <v>1421.807684752489</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="X34" t="n">
-        <v>1193.818133854471</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y34" t="n">
-        <v>973.0255547109412</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,10 +6961,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.9805482336712</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>241.9805482336712</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>241.9805482336712</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>241.9805482336712</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336712</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>241.9805482336712</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.6713633309777</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C40" t="n">
-        <v>653.6713633309777</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>503.5547239186419</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362488</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>870.7229774352686</v>
       </c>
       <c r="Y40" t="n">
-        <v>653.6713633309777</v>
+        <v>870.7229774352686</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,13 +7435,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.3055067228584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.3055067228584</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,13 +7727,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.6964226305959</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="C46" t="n">
-        <v>437.6964226305959</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="D46" t="n">
-        <v>437.6964226305959</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="E46" t="n">
-        <v>289.7833290482027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>142.8933815502924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7809,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504748</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>169.2863157167187</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>108.8451328388537</v>
       </c>
       <c r="C13" t="n">
-        <v>40.1349015201243</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.04454462757457</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>85.04858374801469</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>9.461745143208788</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>259.2629056590285</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>75.60710042367205</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.128537537956703</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>136.5644712113978</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>108.0710972711171</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>127.3779540952198</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>33.62685245643306</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>70.71985939220792</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0172516261567</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>202.1013077997426</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>21.02520521779485</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.1624922468956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>27.94407814005727</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.4376466034346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.94407814005729</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>121.2740412742711</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453429</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26325,37 +26325,37 @@
         <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="H2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449683.4186983654</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983654</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="O2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="O2" t="n">
-        <v>449683.4186983655</v>
-      </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26441,7 +26441,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,10 +26450,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375218.7169278172</v>
+        <v>-375218.7169278173</v>
       </c>
       <c r="C6" t="n">
         <v>214749.1622867273</v>
@@ -26530,40 +26530,40 @@
         <v>214749.1622867274</v>
       </c>
       <c r="E6" t="n">
-        <v>-197742.0805392717</v>
+        <v>-196864.9484055219</v>
       </c>
       <c r="F6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.088071374</v>
       </c>
       <c r="G6" t="n">
-        <v>327417.9559376248</v>
+        <v>328295.0880713739</v>
       </c>
       <c r="H6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.088071374</v>
       </c>
       <c r="I6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713741</v>
       </c>
       <c r="J6" t="n">
-        <v>150994.7367450318</v>
+        <v>151871.8688787812</v>
       </c>
       <c r="K6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713741</v>
       </c>
       <c r="L6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="M6" t="n">
-        <v>192616.9407037875</v>
+        <v>193494.0728375372</v>
       </c>
       <c r="N6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="O6" t="n">
-        <v>327417.9559376249</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="P6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.088071374</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.1401991120225</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>310.7606899497138</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>303.638366823897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>175.5957948629809</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>10.52067551358147</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>189.9101662292999</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758288</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819994</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>418.5440206727429</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
